--- a/comparison/ブック1.xlsx
+++ b/comparison/ブック1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,29 +27,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>proposed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sift</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>surf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>orb</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>BRISK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>MSER_SIFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SURF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Proposed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿25%で実験</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -124,38 +136,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -165,14 +146,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -189,16 +162,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>proposed</c:v>
+                  <c:v>Proposed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>sift</c:v>
+                  <c:v>SIFT</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>surf</c:v>
+                  <c:v>SURF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>orb</c:v>
+                  <c:v>ORB</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>MSER_SIFT</c:v>
@@ -211,27 +184,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$B$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.04706</c:v>
+                  <c:v>0.0485821</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.037198</c:v>
+                  <c:v>0.0389419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.055107</c:v>
+                  <c:v>0.0578846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.012716</c:v>
+                  <c:v>0.0127904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.058845</c:v>
+                  <c:v>0.0617369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.337781</c:v>
+                  <c:v>0.3552683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -245,12 +218,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2102864528"/>
-        <c:axId val="-2079452160"/>
+        <c:gapWidth val="300"/>
+        <c:axId val="-2054013104"/>
+        <c:axId val="-2054010224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102864528"/>
+        <c:axId val="-2054013104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -293,7 +266,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079452160"/>
+        <c:crossAx val="-2054010224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -301,7 +274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079452160"/>
+        <c:axId val="-2054010224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -321,6 +294,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -378,7 +365,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -408,49 +395,10 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102864528"/>
+        <c:crossAx val="-2054013104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="0"/>
-        <c:showKeys val="0"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1043,20 +991,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>55880</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>208280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>680720</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1337,35 +1285,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>4.7059999999999998E-2</v>
       </c>
@@ -1383,6 +1334,218 @@
       </c>
       <c r="G2">
         <v>0.337781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>4.8312000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.8601000000000003E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.7953999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.2791E-2</v>
+      </c>
+      <c r="F3">
+        <v>6.2542E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.35533599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>4.8363000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.9594999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>5.8901000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.3244000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>6.3282000000000005E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.36066799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4.7294000000000003E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.7227999999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>5.9461E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.2609E-2</v>
+      </c>
+      <c r="F5">
+        <v>6.4310000000000006E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.34598600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4.9051999999999998E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.9382E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.0351000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.2942E-2</v>
+      </c>
+      <c r="F6">
+        <v>6.0095999999999997E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.35315999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5.0708000000000003E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.9080999999999998E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.7963000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.3436E-2</v>
+      </c>
+      <c r="F7">
+        <v>6.3375000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.35953400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4.8939999999999997E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.9288999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>5.7019E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.2454E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.9421000000000002E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.35990100000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5.0183999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.9301999999999997E-2</v>
+      </c>
+      <c r="D9">
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.2753E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.9954E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.35629899999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4.8522000000000003E-2</v>
+      </c>
+      <c r="C10">
+        <v>3.8101000000000003E-2</v>
+      </c>
+      <c r="D10">
+        <v>5.8425999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.2489E-2</v>
+      </c>
+      <c r="F10">
+        <v>6.2934000000000004E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.35942499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>4.7385999999999998E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.1641999999999998E-2</v>
+      </c>
+      <c r="D11">
+        <v>5.7113999999999998E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.247E-2</v>
+      </c>
+      <c r="F11">
+        <v>6.2609999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.364593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>4.8582099999999996E-2</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C2:C11)</f>
+        <v>3.8941900000000002E-2</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D2:D11)</f>
+        <v>5.7884599999999994E-2</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(E2:E11)</f>
+        <v>1.2790399999999999E-2</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(F2:F11)</f>
+        <v>6.1736900000000004E-2</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(G2:G11)</f>
+        <v>0.35526829999999998</v>
       </c>
     </row>
   </sheetData>
